--- a/EXPORTED DATA/Exported.xlsx
+++ b/EXPORTED DATA/Exported.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17595" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Uname</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>ddd</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -36,10 +33,10 @@
     <t>three</t>
   </si>
   <si>
-    <t>qqqqq</t>
-  </si>
-  <si>
-    <t>k.qqqqq</t>
+    <t>user20171109074544</t>
+  </si>
+  <si>
+    <t>pass20171109074544</t>
   </si>
 </sst>
 </file>
@@ -392,13 +389,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -420,15 +417,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,22 +433,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EXPORTED DATA/Exported.xlsx
+++ b/EXPORTED DATA/Exported.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Uname</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>pass20171109074544</t>
+  </si>
+  <si>
+    <t>user20171110062617</t>
+  </si>
+  <si>
+    <t>pass20171110062617</t>
+  </si>
+  <si>
+    <t>user20171110063417</t>
+  </si>
+  <si>
+    <t>pass20171110063417</t>
   </si>
 </sst>
 </file>
@@ -435,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25"/>

--- a/EXPORTED DATA/Exported.xlsx
+++ b/EXPORTED DATA/Exported.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17595" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17685" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N13"/>
+  <oleSize ref="A1:R13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Uname</t>
   </si>
@@ -24,31 +24,94 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>user20171109074544</t>
-  </si>
-  <si>
-    <t>pass20171109074544</t>
-  </si>
-  <si>
-    <t>user20171110062617</t>
-  </si>
-  <si>
-    <t>pass20171110062617</t>
-  </si>
-  <si>
     <t>user20171110063417</t>
   </si>
   <si>
     <t>pass20171110063417</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>user20171214044245</t>
+  </si>
+  <si>
+    <t>pass20171214044245</t>
+  </si>
+  <si>
+    <t>f-20171214044245</t>
+  </si>
+  <si>
+    <t>l-20171214044245</t>
+  </si>
+  <si>
+    <t>8888888888</t>
+  </si>
+  <si>
+    <t>user@newtour.com</t>
+  </si>
+  <si>
+    <t>Rajeev gandhi Park, Phase 1, Hinjewadi</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>411057</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>user20171214045623</t>
+  </si>
+  <si>
+    <t>pass20171214045623</t>
+  </si>
+  <si>
+    <t>f-20171214045623</t>
+  </si>
+  <si>
+    <t>l-20171214045623</t>
+  </si>
+  <si>
+    <t>user20171214050506</t>
+  </si>
+  <si>
+    <t>pass20171214050506</t>
+  </si>
+  <si>
+    <t>f-20171214050506</t>
+  </si>
+  <si>
+    <t>l-20171214050506</t>
   </si>
 </sst>
 </file>
@@ -56,10 +119,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,13 +153,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,34 +465,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -431,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,10 +563,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25"/>
